--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,189 +49,195 @@
     <t>thin</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>instead</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>bad</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -241,30 +247,27 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -274,31 +277,46 @@
     <t>happy</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -828,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6774193548387096</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>0.703125</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.668918918918919</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65625</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.5652797704447633</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L9">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>303</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6456310679611651</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C10">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>0.5228215767634855</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L10">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="M10">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>230</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.5217391304347826</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <v>0.4770491803278689</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L12">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M12">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.4716981132075472</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5798319327731093</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14">
-        <v>0.382262996941896</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5777777777777777</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.3544973544973545</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>122</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>0.3433734939759036</v>
+        <v>0.35</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5014492753623189</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.3</v>
+        <v>0.28125</v>
       </c>
       <c r="L17">
         <v>36</v>
@@ -1470,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4578313253012048</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.2578125</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4409448818897638</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>0.2447552447552448</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,37 +1596,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4363636363636363</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20">
-        <v>0.24</v>
+        <v>0.224</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4315789473684211</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,31 +1664,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>0.216</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>98</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4126984126984127</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>0.2043010752688172</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1720,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4126984126984127</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>0.1921052631578947</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L23">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>921</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4074074074074074</v>
+        <v>0.421875</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>0.1686746987951807</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.421875</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,31 +1864,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>0.1096256684491979</v>
+        <v>0.1124106562703054</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>333</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3933649289099526</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,31 +1914,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>0.1065627030539311</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="L26">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1375</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1946,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.390625</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>0.09192200557103064</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3828125</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,31 +2014,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K28">
-        <v>0.06133333333333333</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>704</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2046,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.360655737704918</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,7 +2064,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29">
+        <v>0.06963788300835655</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3595505617977528</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,7 +2114,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30">
+        <v>0.06933333333333333</v>
+      </c>
+      <c r="L30">
+        <v>52</v>
+      </c>
+      <c r="M30">
+        <v>54</v>
+      </c>
+      <c r="N30">
+        <v>0.96</v>
+      </c>
+      <c r="O30">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2080,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3163265306122449</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,7 +2164,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31">
+        <v>0.04435483870967742</v>
+      </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>0.85</v>
+      </c>
+      <c r="O31">
+        <v>0.15</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2106,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.297029702970297</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2124,7 +2214,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>142</v>
+        <v>56</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>0.03129445234708392</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>0.92</v>
+      </c>
+      <c r="O32">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2132,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2577319587628866</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2150,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2158,13 +2272,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2393162393162393</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2176,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2184,13 +2298,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.213768115942029</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2202,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>217</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2210,25 +2324,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.205607476635514</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2236,13 +2350,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2025316455696203</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2254,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>252</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2262,13 +2376,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2280,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2288,13 +2402,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1993670886075949</v>
+        <v>0.225</v>
       </c>
       <c r="C39">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2306,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>253</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2314,13 +2428,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.19</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2332,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>162</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2340,13 +2454,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.188034188034188</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0.04</v>
@@ -2358,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2366,25 +2480,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1800595238095238</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>551</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2392,25 +2506,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1775700934579439</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>176</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2418,7 +2532,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1719745222929936</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C44">
         <v>27</v>
@@ -2436,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2444,25 +2558,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1695402298850575</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>289</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2470,25 +2584,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1558441558441558</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>130</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2496,13 +2610,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1542857142857143</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2514,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2522,13 +2636,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1518324607329843</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2540,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2548,25 +2662,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1443850267379679</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2574,13 +2688,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1387665198237885</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2592,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>391</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2600,13 +2714,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1209677419354839</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2618,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2626,25 +2740,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1178707224334601</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>232</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2652,13 +2766,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1145833333333333</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2670,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2678,25 +2792,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09619686800894854</v>
+        <v>0.125</v>
       </c>
       <c r="C54">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>404</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2704,25 +2818,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0958904109589041</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2730,13 +2844,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08757062146892655</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>0.03</v>
@@ -2748,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2756,25 +2870,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07781456953642384</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C57">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>557</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2782,25 +2896,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0761904761904762</v>
+        <v>0.09131403118040089</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>291</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2808,25 +2922,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07294117647058823</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C59">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E59">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>394</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2834,25 +2948,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05776636713735558</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60">
         <v>45</v>
       </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
       <c r="E60">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>734</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2860,25 +2974,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05633802816901409</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
         <v>24</v>
       </c>
-      <c r="D61">
-        <v>27</v>
-      </c>
       <c r="E61">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F61">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>402</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2886,25 +3000,77 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.05521472392638037</v>
+        <v>0.05538461538461539</v>
       </c>
       <c r="C62">
         <v>36</v>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F62">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>616</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.05512820512820513</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>57</v>
+      </c>
+      <c r="E63">
+        <v>0.25</v>
+      </c>
+      <c r="F63">
+        <v>0.75</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.05164319248826291</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>0.12</v>
+      </c>
+      <c r="F64">
+        <v>0.88</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
